--- a/Чек-лист Хоспис.xlsx
+++ b/Чек-лист Хоспис.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="103">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -25,6 +25,12 @@
     <t>Ожидаемый результат</t>
   </si>
   <si>
+    <t>Пройден\Не пройден</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
     <t>Авторизация</t>
   </si>
   <si>
@@ -37,12 +43,18 @@
     <t>Страница открывается</t>
   </si>
   <si>
+    <t xml:space="preserve">Пройден </t>
+  </si>
+  <si>
     <t>Ввод валидных логина и пароля</t>
   </si>
   <si>
     <t>Успешно</t>
   </si>
   <si>
+    <t>Пройден</t>
+  </si>
+  <si>
     <t>Ввод невалидных логина и пароля</t>
   </si>
   <si>
@@ -299,6 +311,12 @@
   </si>
   <si>
     <t xml:space="preserve">Открывается ссылка </t>
+  </si>
+  <si>
+    <t>Не пройден</t>
+  </si>
+  <si>
+    <t>Нерабочая ссылка</t>
   </si>
   <si>
     <t>Нажать на ссылку "Пользовательское соглашение"</t>
@@ -343,7 +361,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +394,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor rgb="FFB4A7D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8AF"/>
+        <bgColor rgb="FFE6B8AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -474,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -490,6 +520,12 @@
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -502,6 +538,10 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -516,11 +556,8 @@
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -754,13 +791,17 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.38"/>
     <col customWidth="1" min="2" max="2" width="25.25"/>
     <col customWidth="1" min="4" max="4" width="21.5"/>
+    <col customWidth="1" min="5" max="5" width="19.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -776,670 +817,902 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="12"/>
     </row>
     <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12"/>
     </row>
     <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4" s="13"/>
+      <c r="B4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="18"/>
+      <c r="B6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="13"/>
+      <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="13"/>
+      <c r="B8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="13"/>
+      <c r="B13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="21" t="s">
+      <c r="E18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="12" t="s">
+      <c r="D19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="D25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="13"/>
+      <c r="B32" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="13"/>
+      <c r="B33" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="17"/>
+      <c r="B34" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="B43" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="13"/>
+      <c r="B44" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="13"/>
+      <c r="B45" s="16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="12" t="s">
+      <c r="C45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="E45" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="13"/>
+      <c r="B46" s="16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="12" t="s">
+      <c r="C46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="13"/>
+      <c r="B47" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="12" t="s">
+      <c r="E47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="13"/>
+      <c r="B48" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="12" t="s">
+      <c r="C48" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="12" t="s">
+      <c r="E48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="13"/>
+      <c r="B49" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="12" t="s">
+      <c r="C49" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="E49" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="13"/>
+      <c r="B50" s="16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="12" t="s">
+      <c r="C50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="13"/>
+      <c r="B51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="C51" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="13"/>
+      <c r="B52" s="16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="14" t="s">
+      <c r="C52" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="13"/>
+      <c r="B53" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="9"/>
-      <c r="B32" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="9"/>
-      <c r="B33" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="13"/>
-      <c r="B34" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="9"/>
-      <c r="B44" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="9"/>
-      <c r="B45" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="9"/>
-      <c r="B46" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="9"/>
-      <c r="B47" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="9"/>
-      <c r="B48" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="9"/>
-      <c r="B49" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="9"/>
-      <c r="B50" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="9"/>
-      <c r="B51" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="9"/>
-      <c r="B52" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="9"/>
-      <c r="B53" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="E53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="12"/>
     </row>
     <row r="54">
-      <c r="A54" s="13"/>
-      <c r="B54" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="A54" s="17"/>
+      <c r="B54" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="12"/>
     </row>
     <row r="55">
-      <c r="A55" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="19"/>
+      <c r="A55" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
     </row>
     <row r="56">
-      <c r="A56" s="26"/>
-      <c r="B56" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>93</v>
-      </c>
+      <c r="A56" s="29"/>
+      <c r="B56" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="12"/>
     </row>
     <row r="57">
-      <c r="A57" s="9"/>
-      <c r="B57" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>95</v>
+      <c r="A57" s="13"/>
+      <c r="B57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="13"/>
-      <c r="B58" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>95</v>
+      <c r="A58" s="17"/>
+      <c r="B58" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
